--- a/biology/Écologie/Eaux_temporaires/Eaux_temporaires.xlsx
+++ b/biology/Écologie/Eaux_temporaires/Eaux_temporaires.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les eaux temporaires désignent les lacs peu profonds, les étangs, les mares, les marais, les zones inondables, les cours d’eau qui ne contiennent de l’eau que pour une durée limitée et qui le reste du temps sont à sec. Les eaux temporaires peuvent être lotique ou lentique. La présence intermittente de l’eau et l’habitat aquatique éphémère qui en résulte distinguent les eaux temporaires des autres habitats aquatiques[1].
-Les eaux temporaires se retrouvent sur tous les continents, sous toutes les latitudes et dans tous les biomes. Elles se présentent sous une variété de formes et contiennent de l’eau pendant une période suffisamment longue pour qu’une vie aquatique s’y développe[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les eaux temporaires désignent les lacs peu profonds, les étangs, les mares, les marais, les zones inondables, les cours d’eau qui ne contiennent de l’eau que pour une durée limitée et qui le reste du temps sont à sec. Les eaux temporaires peuvent être lotique ou lentique. La présence intermittente de l’eau et l’habitat aquatique éphémère qui en résulte distinguent les eaux temporaires des autres habitats aquatiques.
+Les eaux temporaires se retrouvent sur tous les continents, sous toutes les latitudes et dans tous les biomes. Elles se présentent sous une variété de formes et contiennent de l’eau pendant une période suffisamment longue pour qu’une vie aquatique s’y développe.
 Cet article ne traite pas des mares résiduelles, associées au milieu marin.
 </t>
         </is>
@@ -513,7 +525,9 @@
           <t>Typologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Bassin d’eaux de fonte : accumulation d’eaux de fonte dans les régions arctique et antarctique.
 Bassin de plaine inondable : dépression en zone inondable où persiste une accumulation d’eau après le retrait des eaux de l’inondation.
@@ -560,7 +574,9 @@
           <t>Terminologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Liste de termes en diverses langues désignant des eaux temporaires ou associés aux eaux temporaires :
 Arroyo, wash, draw : en Amérique, cours d’eau temporaire du même genre que le oued.
@@ -638,7 +654,9 @@
           <t>Régime d'inondation</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Le régime d’inondation des systèmes d’eaux temporaires varie en fonction du type de système, du climat, de la géographie ou de l’action humaine. Certains sont à sec la plupart du temps, alors que d’autres subissent des périodes de sécheresse qu’à de rares occasions. Une classification en cinq catégories a été établie selon un régime d’inondation : éphémère, épisodique, intermittent, saisonnier et quasi permanent.
 </t>
@@ -669,14 +687,16 @@
           <t>Écologie des mares et eaux temporaires</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Les principaux taxons des organismes vivants en eau douce se retrouvent dans les eaux temporaires.
 Ces espèces se distinguent cependant par leurs adaptations à survivre aux périodes de sécheresse qui caractérisent les eaux temporaires.
 La diapause, la quiescence, la fuite et dans une moindre mesure la dormance constituent les principaux moyens pour subsister au dessèchement du milieu.
 Chez les végétaux, les graines résistent à la sécheresse et/ou à l'immersion durant des années.  Certaines espèces végétales comme le tamaris étendent des racines profondément dans le sol pour assurer un accès aux eaux souterraines pendant les périodes de sécheresse.
-Chez les animaux, de nombreuses adaptations existent. Ainsi, les dipneustes s’enlisent dans la vase et réduisent le rythme de leur métabolisme. Certains mollusques s’enfoncent dans le sol jusqu’au retour des eaux. Les écrevisses creusent de profonds terriers qui restent submergés d’eau même pendant la sécheresse. Plusieurs amphibiens et insectes ont des stades larvaires aquatiques qui ont le temps de compléter leur cycle avant la fin de la période d’inondation. La pupe de certaines espèces d’insectes devient dormante jusqu’à la prochaine période d’inondation[1]. Les crustacés Triops et daphnies ou  des poissons comme les Killies pondent des œufs qui, une fois déshydratés peuvent survivre des mois ou des années jusqu'au retour de l'eau.
-La conservation de milieux temporairement inondés est nécessaire à la survie de certaines espèces à faible pouvoir de dispersion ou qui dépendent des cycles marqués d'exhondation/inondation tels que les triops (par exemple en Europe et France Triops cancriformis, espèce dite « fossile », car très ancienne, mais néanmoins en voie de disparition sur une grande partie de son aire potentielle de répartition[3]).
+Chez les animaux, de nombreuses adaptations existent. Ainsi, les dipneustes s’enlisent dans la vase et réduisent le rythme de leur métabolisme. Certains mollusques s’enfoncent dans le sol jusqu’au retour des eaux. Les écrevisses creusent de profonds terriers qui restent submergés d’eau même pendant la sécheresse. Plusieurs amphibiens et insectes ont des stades larvaires aquatiques qui ont le temps de compléter leur cycle avant la fin de la période d’inondation. La pupe de certaines espèces d’insectes devient dormante jusqu’à la prochaine période d’inondation. Les crustacés Triops et daphnies ou  des poissons comme les Killies pondent des œufs qui, une fois déshydratés peuvent survivre des mois ou des années jusqu'au retour de l'eau.
+La conservation de milieux temporairement inondés est nécessaire à la survie de certaines espèces à faible pouvoir de dispersion ou qui dépendent des cycles marqués d'exhondation/inondation tels que les triops (par exemple en Europe et France Triops cancriformis, espèce dite « fossile », car très ancienne, mais néanmoins en voie de disparition sur une grande partie de son aire potentielle de répartition).
 </t>
         </is>
       </c>
